--- a/log/icg_log.xlsx
+++ b/log/icg_log.xlsx
@@ -14,13 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
-  <si>
-    <t>Unnamed: 0</t>
-  </si>
-  <si>
-    <t>Unnamed: 0.1</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Simulation Case Conditions_Feed Rate_Feed from V615 Btm_m3/hr</t>
   </si>
@@ -67,10 +61,13 @@
     <t>Simulation Case Conditions_C620 Distillate Rate_m3/hr</t>
   </si>
   <si>
+    <t>實驗001</t>
+  </si>
+  <si>
     <t>實驗002</t>
   </si>
   <si>
-    <t>測試001</t>
+    <t>實驗003</t>
   </si>
 </sst>
 </file>
@@ -428,13 +425,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R4"/>
+  <dimension ref="A1:P4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:16">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -480,124 +477,154 @@
       <c r="P1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:16">
+      <c r="A2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="B2">
+        <v>181.5</v>
+      </c>
+      <c r="C2">
+        <v>1.2360113432785</v>
+      </c>
+      <c r="D2">
+        <v>10.736612795</v>
+      </c>
+      <c r="E2">
+        <v>44.81649399</v>
+      </c>
+      <c r="F2">
+        <v>15</v>
+      </c>
+      <c r="G2">
+        <v>2.33897661225</v>
+      </c>
+      <c r="H2">
+        <v>74.30225372</v>
+      </c>
+      <c r="I2">
+        <v>17.46782494</v>
+      </c>
+      <c r="J2">
+        <v>62</v>
+      </c>
+      <c r="K2">
+        <v>0.2717501698265249</v>
+      </c>
+      <c r="L2">
+        <v>32.54899883</v>
+      </c>
+      <c r="M2">
+        <v>59.73817443999999</v>
+      </c>
+      <c r="N2">
+        <v>80</v>
+      </c>
+      <c r="O2">
+        <v>770</v>
+      </c>
+      <c r="P2">
+        <v>0.02815353870391846</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="B3">
+        <v>181.5</v>
+      </c>
+      <c r="C3">
+        <v>1.2360113432785</v>
+      </c>
+      <c r="D3">
+        <v>10.736612795</v>
+      </c>
+      <c r="E3">
+        <v>44.81649399</v>
+      </c>
+      <c r="F3">
+        <v>15</v>
+      </c>
+      <c r="G3">
+        <v>2.33897661225</v>
+      </c>
+      <c r="H3">
+        <v>74.30225372</v>
+      </c>
+      <c r="I3">
+        <v>17.46782494</v>
+      </c>
+      <c r="J3">
+        <v>62</v>
+      </c>
+      <c r="K3">
+        <v>0.2717501698265249</v>
+      </c>
+      <c r="L3">
+        <v>32.54899883</v>
+      </c>
+      <c r="M3">
+        <v>59.73817443999999</v>
+      </c>
+      <c r="N3">
+        <v>80</v>
+      </c>
+      <c r="O3">
+        <v>770</v>
+      </c>
+      <c r="P3">
+        <v>0.02815353870391846</v>
+      </c>
     </row>
-    <row r="2" spans="1:18">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3">
-        <v>181.5</v>
-      </c>
-      <c r="E3">
-        <v>1.2360113432785</v>
-      </c>
-      <c r="F3">
-        <v>10.736612795</v>
-      </c>
-      <c r="G3">
-        <v>44.81649399</v>
-      </c>
-      <c r="H3">
-        <v>15</v>
-      </c>
-      <c r="I3">
-        <v>2.33897661225</v>
-      </c>
-      <c r="J3">
-        <v>74.30225372</v>
-      </c>
-      <c r="K3">
-        <v>17.46782494</v>
-      </c>
-      <c r="L3">
-        <v>62</v>
-      </c>
-      <c r="M3">
-        <v>0.2717501698265249</v>
-      </c>
-      <c r="N3">
-        <v>32.54899883</v>
-      </c>
-      <c r="O3">
-        <v>59.73817443999999</v>
-      </c>
-      <c r="P3">
-        <v>80</v>
-      </c>
-      <c r="Q3">
-        <v>770</v>
-      </c>
-      <c r="R3">
-        <v>0.02815353870391846</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:16">
       <c r="A4" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="B4">
+        <v>181.5</v>
+      </c>
+      <c r="C4">
+        <v>1.2360113432785</v>
+      </c>
       <c r="D4">
-        <v>181.5</v>
+        <v>10.736612795</v>
       </c>
       <c r="E4">
-        <v>1.2360113432785</v>
+        <v>44.81649399</v>
       </c>
       <c r="F4">
-        <v>10.736612795</v>
+        <v>15</v>
       </c>
       <c r="G4">
-        <v>44.81649399</v>
+        <v>2.33897661225</v>
       </c>
       <c r="H4">
-        <v>15</v>
+        <v>74.30225372</v>
       </c>
       <c r="I4">
-        <v>2.33897661225</v>
+        <v>17.46782494</v>
       </c>
       <c r="J4">
-        <v>74.30225372</v>
+        <v>62</v>
       </c>
       <c r="K4">
-        <v>17.46782494</v>
+        <v>0.2717501698265249</v>
       </c>
       <c r="L4">
-        <v>62</v>
+        <v>32.54899883</v>
       </c>
       <c r="M4">
-        <v>0.2717501698265249</v>
+        <v>59.73817443999999</v>
       </c>
       <c r="N4">
-        <v>32.54899883</v>
+        <v>80</v>
       </c>
       <c r="O4">
-        <v>59.73817443999999</v>
+        <v>770</v>
       </c>
       <c r="P4">
-        <v>80</v>
-      </c>
-      <c r="Q4">
-        <v>770</v>
-      </c>
-      <c r="R4">
         <v>0.02815353870391846</v>
       </c>
     </row>

--- a/log/icg_log.xlsx
+++ b/log/icg_log.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="24">
   <si>
     <t>Simulation Case Conditions_Feed Rate_Feed from V615 Btm_m3/hr</t>
   </si>
@@ -68,6 +68,24 @@
   </si>
   <si>
     <t>實驗003</t>
+  </si>
+  <si>
+    <t>實驗004</t>
+  </si>
+  <si>
+    <t>001</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>0800</t>
+  </si>
+  <si>
+    <t>0801</t>
+  </si>
+  <si>
+    <t>78</t>
   </si>
 </sst>
 </file>
@@ -425,7 +443,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P4"/>
+  <dimension ref="A1:P47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -628,6 +646,2154 @@
         <v>0.02815353870391846</v>
       </c>
     </row>
+    <row r="5" spans="1:16">
+      <c r="A5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5">
+        <v>181.5</v>
+      </c>
+      <c r="C5">
+        <v>1.2360113432785</v>
+      </c>
+      <c r="D5">
+        <v>10.736612795</v>
+      </c>
+      <c r="E5">
+        <v>44.81649399</v>
+      </c>
+      <c r="F5">
+        <v>15</v>
+      </c>
+      <c r="G5">
+        <v>2.33897661225</v>
+      </c>
+      <c r="H5">
+        <v>74.30225372</v>
+      </c>
+      <c r="I5">
+        <v>17.46782494</v>
+      </c>
+      <c r="J5">
+        <v>62</v>
+      </c>
+      <c r="K5">
+        <v>0.2717501698265249</v>
+      </c>
+      <c r="L5">
+        <v>32.54899883</v>
+      </c>
+      <c r="M5">
+        <v>59.73817443999999</v>
+      </c>
+      <c r="N5">
+        <v>80</v>
+      </c>
+      <c r="O5">
+        <v>770</v>
+      </c>
+      <c r="P5">
+        <v>0.02815353870391846</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6">
+        <v>181.5</v>
+      </c>
+      <c r="C6">
+        <v>1.2360113432785</v>
+      </c>
+      <c r="D6">
+        <v>10.736612795</v>
+      </c>
+      <c r="E6">
+        <v>44.81649399</v>
+      </c>
+      <c r="F6">
+        <v>15</v>
+      </c>
+      <c r="G6">
+        <v>2.33897661225</v>
+      </c>
+      <c r="H6">
+        <v>74.30225372</v>
+      </c>
+      <c r="I6">
+        <v>17.46782494</v>
+      </c>
+      <c r="J6">
+        <v>62</v>
+      </c>
+      <c r="K6">
+        <v>0.2717501698265249</v>
+      </c>
+      <c r="L6">
+        <v>32.54899883</v>
+      </c>
+      <c r="M6">
+        <v>59.73817443999999</v>
+      </c>
+      <c r="N6">
+        <v>80</v>
+      </c>
+      <c r="O6">
+        <v>770</v>
+      </c>
+      <c r="P6">
+        <v>0.02815353870391846</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7">
+        <v>181.5</v>
+      </c>
+      <c r="C7">
+        <v>1.2360113432785</v>
+      </c>
+      <c r="D7">
+        <v>10.736612795</v>
+      </c>
+      <c r="E7">
+        <v>44.81649399</v>
+      </c>
+      <c r="F7">
+        <v>15</v>
+      </c>
+      <c r="G7">
+        <v>2.33897661225</v>
+      </c>
+      <c r="H7">
+        <v>74.30225372</v>
+      </c>
+      <c r="I7">
+        <v>17.46782494</v>
+      </c>
+      <c r="J7">
+        <v>62</v>
+      </c>
+      <c r="K7">
+        <v>0.2717501698265249</v>
+      </c>
+      <c r="L7">
+        <v>32.54899883</v>
+      </c>
+      <c r="M7">
+        <v>59.73817443999999</v>
+      </c>
+      <c r="N7">
+        <v>80</v>
+      </c>
+      <c r="O7">
+        <v>770</v>
+      </c>
+      <c r="P7">
+        <v>0.02815353870391846</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="A8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8">
+        <v>181.5</v>
+      </c>
+      <c r="C8">
+        <v>1.2360113432785</v>
+      </c>
+      <c r="D8">
+        <v>10.736612795</v>
+      </c>
+      <c r="E8">
+        <v>44.81649399</v>
+      </c>
+      <c r="F8">
+        <v>15</v>
+      </c>
+      <c r="G8">
+        <v>2.33897661225</v>
+      </c>
+      <c r="H8">
+        <v>74.30225372</v>
+      </c>
+      <c r="I8">
+        <v>17.46782494</v>
+      </c>
+      <c r="J8">
+        <v>62</v>
+      </c>
+      <c r="K8">
+        <v>0.2717501698265249</v>
+      </c>
+      <c r="L8">
+        <v>32.54899883</v>
+      </c>
+      <c r="M8">
+        <v>59.73817443999999</v>
+      </c>
+      <c r="N8">
+        <v>80</v>
+      </c>
+      <c r="O8">
+        <v>770</v>
+      </c>
+      <c r="P8">
+        <v>0.02815353870391846</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9">
+        <v>181.5</v>
+      </c>
+      <c r="C9">
+        <v>1.2360113432785</v>
+      </c>
+      <c r="D9">
+        <v>10.736612795</v>
+      </c>
+      <c r="E9">
+        <v>44.81649399</v>
+      </c>
+      <c r="F9">
+        <v>15</v>
+      </c>
+      <c r="G9">
+        <v>2.33897661225</v>
+      </c>
+      <c r="H9">
+        <v>74.30225372</v>
+      </c>
+      <c r="I9">
+        <v>17.46782494</v>
+      </c>
+      <c r="J9">
+        <v>62</v>
+      </c>
+      <c r="K9">
+        <v>0.2717501698265249</v>
+      </c>
+      <c r="L9">
+        <v>32.54899883</v>
+      </c>
+      <c r="M9">
+        <v>59.73817443999999</v>
+      </c>
+      <c r="N9">
+        <v>80</v>
+      </c>
+      <c r="O9">
+        <v>770</v>
+      </c>
+      <c r="P9">
+        <v>0.02815353870391846</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="A10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10">
+        <v>181.5</v>
+      </c>
+      <c r="C10">
+        <v>1.2360113432785</v>
+      </c>
+      <c r="D10">
+        <v>10.736612795</v>
+      </c>
+      <c r="E10">
+        <v>44.81649399</v>
+      </c>
+      <c r="F10">
+        <v>15</v>
+      </c>
+      <c r="G10">
+        <v>2.33897661225</v>
+      </c>
+      <c r="H10">
+        <v>74.30225372</v>
+      </c>
+      <c r="I10">
+        <v>17.46782494</v>
+      </c>
+      <c r="J10">
+        <v>62</v>
+      </c>
+      <c r="K10">
+        <v>0.2717501698265249</v>
+      </c>
+      <c r="L10">
+        <v>32.54899883</v>
+      </c>
+      <c r="M10">
+        <v>59.73817443999999</v>
+      </c>
+      <c r="N10">
+        <v>80</v>
+      </c>
+      <c r="O10">
+        <v>770</v>
+      </c>
+      <c r="P10">
+        <v>0.02815353870391846</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="A11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11">
+        <v>181.5</v>
+      </c>
+      <c r="C11">
+        <v>1.2360113432785</v>
+      </c>
+      <c r="D11">
+        <v>10.736612795</v>
+      </c>
+      <c r="E11">
+        <v>44.81649399</v>
+      </c>
+      <c r="F11">
+        <v>15</v>
+      </c>
+      <c r="G11">
+        <v>2.33897661225</v>
+      </c>
+      <c r="H11">
+        <v>74.30225372</v>
+      </c>
+      <c r="I11">
+        <v>17.46782494</v>
+      </c>
+      <c r="J11">
+        <v>62</v>
+      </c>
+      <c r="K11">
+        <v>0.2717501698265249</v>
+      </c>
+      <c r="L11">
+        <v>32.54899883</v>
+      </c>
+      <c r="M11">
+        <v>59.73817443999999</v>
+      </c>
+      <c r="N11">
+        <v>80</v>
+      </c>
+      <c r="O11">
+        <v>770</v>
+      </c>
+      <c r="P11">
+        <v>0.02815353870391846</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="A12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12">
+        <v>181.5</v>
+      </c>
+      <c r="C12">
+        <v>1.2360113432785</v>
+      </c>
+      <c r="D12">
+        <v>10.736612795</v>
+      </c>
+      <c r="E12">
+        <v>44.81649399</v>
+      </c>
+      <c r="F12">
+        <v>15</v>
+      </c>
+      <c r="G12">
+        <v>2.33897661225</v>
+      </c>
+      <c r="H12">
+        <v>74.30225372</v>
+      </c>
+      <c r="I12">
+        <v>17.46782494</v>
+      </c>
+      <c r="J12">
+        <v>62</v>
+      </c>
+      <c r="K12">
+        <v>0.2717501698265249</v>
+      </c>
+      <c r="L12">
+        <v>32.54899883</v>
+      </c>
+      <c r="M12">
+        <v>59.73817443999999</v>
+      </c>
+      <c r="N12">
+        <v>80</v>
+      </c>
+      <c r="O12">
+        <v>770</v>
+      </c>
+      <c r="P12">
+        <v>0.02815353870391846</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="A13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13">
+        <v>181.5</v>
+      </c>
+      <c r="C13">
+        <v>1.2360113432785</v>
+      </c>
+      <c r="D13">
+        <v>10.736612795</v>
+      </c>
+      <c r="E13">
+        <v>44.81649399</v>
+      </c>
+      <c r="F13">
+        <v>15</v>
+      </c>
+      <c r="G13">
+        <v>2.33897661225</v>
+      </c>
+      <c r="H13">
+        <v>74.30225372</v>
+      </c>
+      <c r="I13">
+        <v>17.46782494</v>
+      </c>
+      <c r="J13">
+        <v>62</v>
+      </c>
+      <c r="K13">
+        <v>0.2717501698265249</v>
+      </c>
+      <c r="L13">
+        <v>32.54899883</v>
+      </c>
+      <c r="M13">
+        <v>59.73817443999999</v>
+      </c>
+      <c r="N13">
+        <v>80</v>
+      </c>
+      <c r="O13">
+        <v>770</v>
+      </c>
+      <c r="P13">
+        <v>0.02815353870391846</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="A14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14">
+        <v>181.5</v>
+      </c>
+      <c r="C14">
+        <v>1.2360113432785</v>
+      </c>
+      <c r="D14">
+        <v>10.736612795</v>
+      </c>
+      <c r="E14">
+        <v>44.81649399</v>
+      </c>
+      <c r="F14">
+        <v>15</v>
+      </c>
+      <c r="G14">
+        <v>2.33897661225</v>
+      </c>
+      <c r="H14">
+        <v>74.30225372</v>
+      </c>
+      <c r="I14">
+        <v>17.46782494</v>
+      </c>
+      <c r="J14">
+        <v>62</v>
+      </c>
+      <c r="K14">
+        <v>0.2717501698265249</v>
+      </c>
+      <c r="L14">
+        <v>32.54899883</v>
+      </c>
+      <c r="M14">
+        <v>59.73817443999999</v>
+      </c>
+      <c r="N14">
+        <v>80</v>
+      </c>
+      <c r="O14">
+        <v>770</v>
+      </c>
+      <c r="P14">
+        <v>0.02815353870391846</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="A15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15">
+        <v>181.5</v>
+      </c>
+      <c r="C15">
+        <v>1.2360113432785</v>
+      </c>
+      <c r="D15">
+        <v>10.736612795</v>
+      </c>
+      <c r="E15">
+        <v>44.81649399</v>
+      </c>
+      <c r="F15">
+        <v>15</v>
+      </c>
+      <c r="G15">
+        <v>2.33897661225</v>
+      </c>
+      <c r="H15">
+        <v>74.30225372</v>
+      </c>
+      <c r="I15">
+        <v>17.46782494</v>
+      </c>
+      <c r="J15">
+        <v>62</v>
+      </c>
+      <c r="K15">
+        <v>0.2717501698265249</v>
+      </c>
+      <c r="L15">
+        <v>32.54899883</v>
+      </c>
+      <c r="M15">
+        <v>59.73817443999999</v>
+      </c>
+      <c r="N15">
+        <v>80</v>
+      </c>
+      <c r="O15">
+        <v>770</v>
+      </c>
+      <c r="P15">
+        <v>0.02815353870391846</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="A16" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16">
+        <v>181.5</v>
+      </c>
+      <c r="C16">
+        <v>1.2360113432785</v>
+      </c>
+      <c r="D16">
+        <v>10.736612795</v>
+      </c>
+      <c r="E16">
+        <v>44.81649399</v>
+      </c>
+      <c r="F16">
+        <v>15</v>
+      </c>
+      <c r="G16">
+        <v>2.33897661225</v>
+      </c>
+      <c r="H16">
+        <v>74.30225372</v>
+      </c>
+      <c r="I16">
+        <v>17.46782494</v>
+      </c>
+      <c r="J16">
+        <v>62</v>
+      </c>
+      <c r="K16">
+        <v>0.2717501698265249</v>
+      </c>
+      <c r="L16">
+        <v>32.54899883</v>
+      </c>
+      <c r="M16">
+        <v>59.73817443999999</v>
+      </c>
+      <c r="N16">
+        <v>80</v>
+      </c>
+      <c r="O16">
+        <v>770</v>
+      </c>
+      <c r="P16">
+        <v>0.02815353870391846</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
+      <c r="A17" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17">
+        <v>181.5</v>
+      </c>
+      <c r="C17">
+        <v>1.2360113432785</v>
+      </c>
+      <c r="D17">
+        <v>10.736612795</v>
+      </c>
+      <c r="E17">
+        <v>44.81649399</v>
+      </c>
+      <c r="F17">
+        <v>15</v>
+      </c>
+      <c r="G17">
+        <v>2.33897661225</v>
+      </c>
+      <c r="H17">
+        <v>74.30225372</v>
+      </c>
+      <c r="I17">
+        <v>17.46782494</v>
+      </c>
+      <c r="J17">
+        <v>62</v>
+      </c>
+      <c r="K17">
+        <v>0.2717501698265249</v>
+      </c>
+      <c r="L17">
+        <v>32.54899883</v>
+      </c>
+      <c r="M17">
+        <v>59.73817443999999</v>
+      </c>
+      <c r="N17">
+        <v>80</v>
+      </c>
+      <c r="O17">
+        <v>770</v>
+      </c>
+      <c r="P17">
+        <v>0.02815353870391846</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
+      <c r="A18" s="1"/>
+      <c r="B18">
+        <v>181.5</v>
+      </c>
+      <c r="C18">
+        <v>1.2360113432785</v>
+      </c>
+      <c r="D18">
+        <v>10.736612795</v>
+      </c>
+      <c r="E18">
+        <v>44.81649399</v>
+      </c>
+      <c r="F18">
+        <v>15</v>
+      </c>
+      <c r="G18">
+        <v>2.33897661225</v>
+      </c>
+      <c r="H18">
+        <v>74.30225372</v>
+      </c>
+      <c r="I18">
+        <v>17.46782494</v>
+      </c>
+      <c r="J18">
+        <v>62</v>
+      </c>
+      <c r="K18">
+        <v>0.2717501698265249</v>
+      </c>
+      <c r="L18">
+        <v>32.54899883</v>
+      </c>
+      <c r="M18">
+        <v>59.73817443999999</v>
+      </c>
+      <c r="N18">
+        <v>80</v>
+      </c>
+      <c r="O18">
+        <v>770</v>
+      </c>
+      <c r="P18">
+        <v>0.02815353870391846</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
+      <c r="A19" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19">
+        <v>181.5</v>
+      </c>
+      <c r="C19">
+        <v>1.2360113432785</v>
+      </c>
+      <c r="D19">
+        <v>10.736612795</v>
+      </c>
+      <c r="E19">
+        <v>44.81649399</v>
+      </c>
+      <c r="F19">
+        <v>15</v>
+      </c>
+      <c r="G19">
+        <v>2.33897661225</v>
+      </c>
+      <c r="H19">
+        <v>74.30225372</v>
+      </c>
+      <c r="I19">
+        <v>17.46782494</v>
+      </c>
+      <c r="J19">
+        <v>62</v>
+      </c>
+      <c r="K19">
+        <v>0.2717501698265249</v>
+      </c>
+      <c r="L19">
+        <v>32.54899883</v>
+      </c>
+      <c r="M19">
+        <v>59.73817443999999</v>
+      </c>
+      <c r="N19">
+        <v>80</v>
+      </c>
+      <c r="O19">
+        <v>770</v>
+      </c>
+      <c r="P19">
+        <v>0.02815353870391846</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
+      <c r="A20" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20">
+        <v>181.5</v>
+      </c>
+      <c r="C20">
+        <v>1.2360113432785</v>
+      </c>
+      <c r="D20">
+        <v>10.736612795</v>
+      </c>
+      <c r="E20">
+        <v>44.81649399</v>
+      </c>
+      <c r="F20">
+        <v>15</v>
+      </c>
+      <c r="G20">
+        <v>2.33897661225</v>
+      </c>
+      <c r="H20">
+        <v>74.30225372</v>
+      </c>
+      <c r="I20">
+        <v>17.46782494</v>
+      </c>
+      <c r="J20">
+        <v>62</v>
+      </c>
+      <c r="K20">
+        <v>0.2717501698265249</v>
+      </c>
+      <c r="L20">
+        <v>32.54899883</v>
+      </c>
+      <c r="M20">
+        <v>59.73817443999999</v>
+      </c>
+      <c r="N20">
+        <v>80</v>
+      </c>
+      <c r="O20">
+        <v>770</v>
+      </c>
+      <c r="P20">
+        <v>0.02815353870391846</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
+      <c r="A21" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21">
+        <v>181.5</v>
+      </c>
+      <c r="C21">
+        <v>1.2360113432785</v>
+      </c>
+      <c r="D21">
+        <v>10.736612795</v>
+      </c>
+      <c r="E21">
+        <v>44.81649399</v>
+      </c>
+      <c r="F21">
+        <v>15</v>
+      </c>
+      <c r="G21">
+        <v>2.33897661225</v>
+      </c>
+      <c r="H21">
+        <v>74.30225372</v>
+      </c>
+      <c r="I21">
+        <v>17.46782494</v>
+      </c>
+      <c r="J21">
+        <v>62</v>
+      </c>
+      <c r="K21">
+        <v>0.2717501698265249</v>
+      </c>
+      <c r="L21">
+        <v>32.54899883</v>
+      </c>
+      <c r="M21">
+        <v>59.73817443999999</v>
+      </c>
+      <c r="N21">
+        <v>80</v>
+      </c>
+      <c r="O21">
+        <v>770</v>
+      </c>
+      <c r="P21">
+        <v>0.02815353870391846</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16">
+      <c r="A22" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>181.5</v>
+      </c>
+      <c r="C22">
+        <v>1.2360113432785</v>
+      </c>
+      <c r="D22">
+        <v>10.736612795</v>
+      </c>
+      <c r="E22">
+        <v>44.81649399</v>
+      </c>
+      <c r="F22">
+        <v>15</v>
+      </c>
+      <c r="G22">
+        <v>2.33897661225</v>
+      </c>
+      <c r="H22">
+        <v>74.30225372</v>
+      </c>
+      <c r="I22">
+        <v>17.46782494</v>
+      </c>
+      <c r="J22">
+        <v>62</v>
+      </c>
+      <c r="K22">
+        <v>0.2717501698265249</v>
+      </c>
+      <c r="L22">
+        <v>32.54899883</v>
+      </c>
+      <c r="M22">
+        <v>59.73817443999999</v>
+      </c>
+      <c r="N22">
+        <v>80</v>
+      </c>
+      <c r="O22">
+        <v>770</v>
+      </c>
+      <c r="P22">
+        <v>0.02815353870391846</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
+      <c r="A23" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>181.5</v>
+      </c>
+      <c r="C23">
+        <v>1.2360113432785</v>
+      </c>
+      <c r="D23">
+        <v>10.736612795</v>
+      </c>
+      <c r="E23">
+        <v>44.81649399</v>
+      </c>
+      <c r="F23">
+        <v>15</v>
+      </c>
+      <c r="G23">
+        <v>2.33897661225</v>
+      </c>
+      <c r="H23">
+        <v>74.30225372</v>
+      </c>
+      <c r="I23">
+        <v>17.46782494</v>
+      </c>
+      <c r="J23">
+        <v>62</v>
+      </c>
+      <c r="K23">
+        <v>0.2717501698265249</v>
+      </c>
+      <c r="L23">
+        <v>32.54899883</v>
+      </c>
+      <c r="M23">
+        <v>59.73817443999999</v>
+      </c>
+      <c r="N23">
+        <v>80</v>
+      </c>
+      <c r="O23">
+        <v>770</v>
+      </c>
+      <c r="P23">
+        <v>0.02815353870391846</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16">
+      <c r="A24" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B24">
+        <v>181.5</v>
+      </c>
+      <c r="C24">
+        <v>1.2360113432785</v>
+      </c>
+      <c r="D24">
+        <v>10.736612795</v>
+      </c>
+      <c r="E24">
+        <v>44.81649399</v>
+      </c>
+      <c r="F24">
+        <v>15</v>
+      </c>
+      <c r="G24">
+        <v>2.33897661225</v>
+      </c>
+      <c r="H24">
+        <v>74.30225372</v>
+      </c>
+      <c r="I24">
+        <v>17.46782494</v>
+      </c>
+      <c r="J24">
+        <v>62</v>
+      </c>
+      <c r="K24">
+        <v>0.2717501698265249</v>
+      </c>
+      <c r="L24">
+        <v>32.54899883</v>
+      </c>
+      <c r="M24">
+        <v>59.73817443999999</v>
+      </c>
+      <c r="N24">
+        <v>80</v>
+      </c>
+      <c r="O24">
+        <v>770</v>
+      </c>
+      <c r="P24">
+        <v>0.02815353870391846</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16">
+      <c r="A25" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B25">
+        <v>181.5</v>
+      </c>
+      <c r="C25">
+        <v>1.2360113432785</v>
+      </c>
+      <c r="D25">
+        <v>10.736612795</v>
+      </c>
+      <c r="E25">
+        <v>44.81649399</v>
+      </c>
+      <c r="F25">
+        <v>15</v>
+      </c>
+      <c r="G25">
+        <v>2.33897661225</v>
+      </c>
+      <c r="H25">
+        <v>74.30225372</v>
+      </c>
+      <c r="I25">
+        <v>17.46782494</v>
+      </c>
+      <c r="J25">
+        <v>62</v>
+      </c>
+      <c r="K25">
+        <v>0.2717501698265249</v>
+      </c>
+      <c r="L25">
+        <v>32.54899883</v>
+      </c>
+      <c r="M25">
+        <v>59.73817443999999</v>
+      </c>
+      <c r="N25">
+        <v>80</v>
+      </c>
+      <c r="O25">
+        <v>770</v>
+      </c>
+      <c r="P25">
+        <v>0.02815353870391846</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16">
+      <c r="A26" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B26">
+        <v>181.5</v>
+      </c>
+      <c r="C26">
+        <v>1.2360113432785</v>
+      </c>
+      <c r="D26">
+        <v>10.736612795</v>
+      </c>
+      <c r="E26">
+        <v>44.81649399</v>
+      </c>
+      <c r="F26">
+        <v>15</v>
+      </c>
+      <c r="G26">
+        <v>2.33897661225</v>
+      </c>
+      <c r="H26">
+        <v>74.30225372</v>
+      </c>
+      <c r="I26">
+        <v>17.46782494</v>
+      </c>
+      <c r="J26">
+        <v>62</v>
+      </c>
+      <c r="K26">
+        <v>0.2717501698265249</v>
+      </c>
+      <c r="L26">
+        <v>32.54899883</v>
+      </c>
+      <c r="M26">
+        <v>59.73817443999999</v>
+      </c>
+      <c r="N26">
+        <v>80</v>
+      </c>
+      <c r="O26">
+        <v>770</v>
+      </c>
+      <c r="P26">
+        <v>0.02815353870391846</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16">
+      <c r="A27" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B27">
+        <v>181.5</v>
+      </c>
+      <c r="C27">
+        <v>1.2360113432785</v>
+      </c>
+      <c r="D27">
+        <v>10.736612795</v>
+      </c>
+      <c r="E27">
+        <v>44.81649399</v>
+      </c>
+      <c r="F27">
+        <v>15</v>
+      </c>
+      <c r="G27">
+        <v>2.33897661225</v>
+      </c>
+      <c r="H27">
+        <v>74.30225372</v>
+      </c>
+      <c r="I27">
+        <v>17.46782494</v>
+      </c>
+      <c r="J27">
+        <v>62</v>
+      </c>
+      <c r="K27">
+        <v>0.2717501698265249</v>
+      </c>
+      <c r="L27">
+        <v>32.54899883</v>
+      </c>
+      <c r="M27">
+        <v>59.73817443999999</v>
+      </c>
+      <c r="N27">
+        <v>80</v>
+      </c>
+      <c r="O27">
+        <v>770</v>
+      </c>
+      <c r="P27">
+        <v>0.02815353870391846</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16">
+      <c r="A28" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B28">
+        <v>181.5</v>
+      </c>
+      <c r="C28">
+        <v>1.2360113432785</v>
+      </c>
+      <c r="D28">
+        <v>10.736612795</v>
+      </c>
+      <c r="E28">
+        <v>44.81649399</v>
+      </c>
+      <c r="F28">
+        <v>15</v>
+      </c>
+      <c r="G28">
+        <v>2.33897661225</v>
+      </c>
+      <c r="H28">
+        <v>74.30225372</v>
+      </c>
+      <c r="I28">
+        <v>17.46782494</v>
+      </c>
+      <c r="J28">
+        <v>62</v>
+      </c>
+      <c r="K28">
+        <v>0.2717501698265249</v>
+      </c>
+      <c r="L28">
+        <v>32.54899883</v>
+      </c>
+      <c r="M28">
+        <v>59.73817443999999</v>
+      </c>
+      <c r="N28">
+        <v>80</v>
+      </c>
+      <c r="O28">
+        <v>770</v>
+      </c>
+      <c r="P28">
+        <v>0.02815353870391846</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16">
+      <c r="A29" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B29">
+        <v>181.5</v>
+      </c>
+      <c r="C29">
+        <v>1.2360113432785</v>
+      </c>
+      <c r="D29">
+        <v>10.736612795</v>
+      </c>
+      <c r="E29">
+        <v>44.81649399</v>
+      </c>
+      <c r="F29">
+        <v>15</v>
+      </c>
+      <c r="G29">
+        <v>2.33897661225</v>
+      </c>
+      <c r="H29">
+        <v>74.30225372</v>
+      </c>
+      <c r="I29">
+        <v>17.46782494</v>
+      </c>
+      <c r="J29">
+        <v>62</v>
+      </c>
+      <c r="K29">
+        <v>0.2717501698265249</v>
+      </c>
+      <c r="L29">
+        <v>32.54899883</v>
+      </c>
+      <c r="M29">
+        <v>59.73817443999999</v>
+      </c>
+      <c r="N29">
+        <v>80</v>
+      </c>
+      <c r="O29">
+        <v>770</v>
+      </c>
+      <c r="P29">
+        <v>0.02815353870391846</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16">
+      <c r="A30" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B30">
+        <v>181.5</v>
+      </c>
+      <c r="C30">
+        <v>1.2360113432785</v>
+      </c>
+      <c r="D30">
+        <v>10.736612795</v>
+      </c>
+      <c r="E30">
+        <v>44.81649399</v>
+      </c>
+      <c r="F30">
+        <v>15</v>
+      </c>
+      <c r="G30">
+        <v>2.33897661225</v>
+      </c>
+      <c r="H30">
+        <v>74.30225372</v>
+      </c>
+      <c r="I30">
+        <v>17.46782494</v>
+      </c>
+      <c r="J30">
+        <v>62</v>
+      </c>
+      <c r="K30">
+        <v>0.2717501698265249</v>
+      </c>
+      <c r="L30">
+        <v>32.54899883</v>
+      </c>
+      <c r="M30">
+        <v>59.73817443999999</v>
+      </c>
+      <c r="N30">
+        <v>80</v>
+      </c>
+      <c r="O30">
+        <v>770</v>
+      </c>
+      <c r="P30">
+        <v>0.02815353870391846</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16">
+      <c r="A31" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B31">
+        <v>181.5</v>
+      </c>
+      <c r="C31">
+        <v>1.2360113432785</v>
+      </c>
+      <c r="D31">
+        <v>10.736612795</v>
+      </c>
+      <c r="E31">
+        <v>44.81649399</v>
+      </c>
+      <c r="F31">
+        <v>15</v>
+      </c>
+      <c r="G31">
+        <v>2.33897661225</v>
+      </c>
+      <c r="H31">
+        <v>74.30225372</v>
+      </c>
+      <c r="I31">
+        <v>17.46782494</v>
+      </c>
+      <c r="J31">
+        <v>62</v>
+      </c>
+      <c r="K31">
+        <v>0.2717501698265249</v>
+      </c>
+      <c r="L31">
+        <v>32.54899883</v>
+      </c>
+      <c r="M31">
+        <v>59.73817443999999</v>
+      </c>
+      <c r="N31">
+        <v>80</v>
+      </c>
+      <c r="O31">
+        <v>770</v>
+      </c>
+      <c r="P31">
+        <v>0.02815353870391846</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16">
+      <c r="A32" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B32">
+        <v>181.5</v>
+      </c>
+      <c r="C32">
+        <v>1.2360113432785</v>
+      </c>
+      <c r="D32">
+        <v>10.736612795</v>
+      </c>
+      <c r="E32">
+        <v>44.81649399</v>
+      </c>
+      <c r="F32">
+        <v>15</v>
+      </c>
+      <c r="G32">
+        <v>2.33897661225</v>
+      </c>
+      <c r="H32">
+        <v>74.30225372</v>
+      </c>
+      <c r="I32">
+        <v>17.46782494</v>
+      </c>
+      <c r="J32">
+        <v>62</v>
+      </c>
+      <c r="K32">
+        <v>0.2717501698265249</v>
+      </c>
+      <c r="L32">
+        <v>32.54899883</v>
+      </c>
+      <c r="M32">
+        <v>59.73817443999999</v>
+      </c>
+      <c r="N32">
+        <v>80</v>
+      </c>
+      <c r="O32">
+        <v>770</v>
+      </c>
+      <c r="P32">
+        <v>0.02815353870391846</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16">
+      <c r="A33" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B33">
+        <v>181.5</v>
+      </c>
+      <c r="C33">
+        <v>1.2360113432785</v>
+      </c>
+      <c r="D33">
+        <v>10.736612795</v>
+      </c>
+      <c r="E33">
+        <v>44.81649399</v>
+      </c>
+      <c r="F33">
+        <v>15</v>
+      </c>
+      <c r="G33">
+        <v>2.33897661225</v>
+      </c>
+      <c r="H33">
+        <v>74.30225372</v>
+      </c>
+      <c r="I33">
+        <v>17.46782494</v>
+      </c>
+      <c r="J33">
+        <v>62</v>
+      </c>
+      <c r="K33">
+        <v>0.2717501698265249</v>
+      </c>
+      <c r="L33">
+        <v>32.54899883</v>
+      </c>
+      <c r="M33">
+        <v>59.73817443999999</v>
+      </c>
+      <c r="N33">
+        <v>80</v>
+      </c>
+      <c r="O33">
+        <v>770</v>
+      </c>
+      <c r="P33">
+        <v>0.02815353870391846</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16">
+      <c r="A34" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B34">
+        <v>181.5</v>
+      </c>
+      <c r="C34">
+        <v>1.2360113432785</v>
+      </c>
+      <c r="D34">
+        <v>10.736612795</v>
+      </c>
+      <c r="E34">
+        <v>44.81649399</v>
+      </c>
+      <c r="F34">
+        <v>15</v>
+      </c>
+      <c r="G34">
+        <v>2.33897661225</v>
+      </c>
+      <c r="H34">
+        <v>74.30225372</v>
+      </c>
+      <c r="I34">
+        <v>17.46782494</v>
+      </c>
+      <c r="J34">
+        <v>62</v>
+      </c>
+      <c r="K34">
+        <v>0.2717501698265249</v>
+      </c>
+      <c r="L34">
+        <v>32.54899883</v>
+      </c>
+      <c r="M34">
+        <v>59.73817443999999</v>
+      </c>
+      <c r="N34">
+        <v>80</v>
+      </c>
+      <c r="O34">
+        <v>770</v>
+      </c>
+      <c r="P34">
+        <v>0.02815353870391846</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16">
+      <c r="A35" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B35">
+        <v>181.5</v>
+      </c>
+      <c r="C35">
+        <v>1.2360113432785</v>
+      </c>
+      <c r="D35">
+        <v>10.736612795</v>
+      </c>
+      <c r="E35">
+        <v>44.81649399</v>
+      </c>
+      <c r="F35">
+        <v>15</v>
+      </c>
+      <c r="G35">
+        <v>2.33897661225</v>
+      </c>
+      <c r="H35">
+        <v>74.30225372</v>
+      </c>
+      <c r="I35">
+        <v>17.46782494</v>
+      </c>
+      <c r="J35">
+        <v>62</v>
+      </c>
+      <c r="K35">
+        <v>0.2717501698265249</v>
+      </c>
+      <c r="L35">
+        <v>32.54899883</v>
+      </c>
+      <c r="M35">
+        <v>59.73817443999999</v>
+      </c>
+      <c r="N35">
+        <v>80</v>
+      </c>
+      <c r="O35">
+        <v>770</v>
+      </c>
+      <c r="P35">
+        <v>0.02815353870391846</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16">
+      <c r="A36" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B36">
+        <v>181.5</v>
+      </c>
+      <c r="C36">
+        <v>1.2360113432785</v>
+      </c>
+      <c r="D36">
+        <v>10.736612795</v>
+      </c>
+      <c r="E36">
+        <v>44.81649399</v>
+      </c>
+      <c r="F36">
+        <v>15</v>
+      </c>
+      <c r="G36">
+        <v>2.33897661225</v>
+      </c>
+      <c r="H36">
+        <v>74.30225372</v>
+      </c>
+      <c r="I36">
+        <v>17.46782494</v>
+      </c>
+      <c r="J36">
+        <v>62</v>
+      </c>
+      <c r="K36">
+        <v>0.2717501698265249</v>
+      </c>
+      <c r="L36">
+        <v>32.54899883</v>
+      </c>
+      <c r="M36">
+        <v>59.73817443999999</v>
+      </c>
+      <c r="N36">
+        <v>80</v>
+      </c>
+      <c r="O36">
+        <v>770</v>
+      </c>
+      <c r="P36">
+        <v>0.02815353870391846</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16">
+      <c r="A37" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B37">
+        <v>181.5</v>
+      </c>
+      <c r="C37">
+        <v>1.2360113432785</v>
+      </c>
+      <c r="D37">
+        <v>10.736612795</v>
+      </c>
+      <c r="E37">
+        <v>44.81649399</v>
+      </c>
+      <c r="F37">
+        <v>15</v>
+      </c>
+      <c r="G37">
+        <v>2.33897661225</v>
+      </c>
+      <c r="H37">
+        <v>74.30225372</v>
+      </c>
+      <c r="I37">
+        <v>17.46782494</v>
+      </c>
+      <c r="J37">
+        <v>62</v>
+      </c>
+      <c r="K37">
+        <v>0.2717501698265249</v>
+      </c>
+      <c r="L37">
+        <v>32.54899883</v>
+      </c>
+      <c r="M37">
+        <v>59.73817443999999</v>
+      </c>
+      <c r="N37">
+        <v>80</v>
+      </c>
+      <c r="O37">
+        <v>770</v>
+      </c>
+      <c r="P37">
+        <v>0.02815353870391846</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16">
+      <c r="A38" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B38">
+        <v>181.5</v>
+      </c>
+      <c r="C38">
+        <v>1.2360113432785</v>
+      </c>
+      <c r="D38">
+        <v>10.736612795</v>
+      </c>
+      <c r="E38">
+        <v>44.81649399</v>
+      </c>
+      <c r="F38">
+        <v>15</v>
+      </c>
+      <c r="G38">
+        <v>2.33897661225</v>
+      </c>
+      <c r="H38">
+        <v>74.30225372</v>
+      </c>
+      <c r="I38">
+        <v>17.46782494</v>
+      </c>
+      <c r="J38">
+        <v>62</v>
+      </c>
+      <c r="K38">
+        <v>0.2717501698265249</v>
+      </c>
+      <c r="L38">
+        <v>32.54899883</v>
+      </c>
+      <c r="M38">
+        <v>59.73817443999999</v>
+      </c>
+      <c r="N38">
+        <v>80</v>
+      </c>
+      <c r="O38">
+        <v>770</v>
+      </c>
+      <c r="P38">
+        <v>0.02815353870391846</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16">
+      <c r="A39" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B39">
+        <v>181.5</v>
+      </c>
+      <c r="C39">
+        <v>1.2360113432785</v>
+      </c>
+      <c r="D39">
+        <v>10.736612795</v>
+      </c>
+      <c r="E39">
+        <v>44.81649399</v>
+      </c>
+      <c r="F39">
+        <v>15</v>
+      </c>
+      <c r="G39">
+        <v>2.33897661225</v>
+      </c>
+      <c r="H39">
+        <v>74.30225372</v>
+      </c>
+      <c r="I39">
+        <v>17.46782494</v>
+      </c>
+      <c r="J39">
+        <v>62</v>
+      </c>
+      <c r="K39">
+        <v>0.2717501698265249</v>
+      </c>
+      <c r="L39">
+        <v>32.54899883</v>
+      </c>
+      <c r="M39">
+        <v>59.73817443999999</v>
+      </c>
+      <c r="N39">
+        <v>80</v>
+      </c>
+      <c r="O39">
+        <v>770</v>
+      </c>
+      <c r="P39">
+        <v>0.02815353870391846</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16">
+      <c r="A40" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B40">
+        <v>181.5</v>
+      </c>
+      <c r="C40">
+        <v>1.2360113432785</v>
+      </c>
+      <c r="D40">
+        <v>10.736612795</v>
+      </c>
+      <c r="E40">
+        <v>44.81649399</v>
+      </c>
+      <c r="F40">
+        <v>15</v>
+      </c>
+      <c r="G40">
+        <v>2.33897661225</v>
+      </c>
+      <c r="H40">
+        <v>74.30225372</v>
+      </c>
+      <c r="I40">
+        <v>17.46782494</v>
+      </c>
+      <c r="J40">
+        <v>62</v>
+      </c>
+      <c r="K40">
+        <v>0.2717501698265249</v>
+      </c>
+      <c r="L40">
+        <v>32.54899883</v>
+      </c>
+      <c r="M40">
+        <v>59.73817443999999</v>
+      </c>
+      <c r="N40">
+        <v>80</v>
+      </c>
+      <c r="O40">
+        <v>770</v>
+      </c>
+      <c r="P40">
+        <v>0.02815353870391846</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16">
+      <c r="A41" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B41">
+        <v>181.5</v>
+      </c>
+      <c r="C41">
+        <v>1.2360113432785</v>
+      </c>
+      <c r="D41">
+        <v>10.736612795</v>
+      </c>
+      <c r="E41">
+        <v>44.81649399</v>
+      </c>
+      <c r="F41">
+        <v>15</v>
+      </c>
+      <c r="G41">
+        <v>2.33897661225</v>
+      </c>
+      <c r="H41">
+        <v>74.30225372</v>
+      </c>
+      <c r="I41">
+        <v>17.46782494</v>
+      </c>
+      <c r="J41">
+        <v>62</v>
+      </c>
+      <c r="K41">
+        <v>0.2717501698265249</v>
+      </c>
+      <c r="L41">
+        <v>32.54899883</v>
+      </c>
+      <c r="M41">
+        <v>59.73817443999999</v>
+      </c>
+      <c r="N41">
+        <v>80</v>
+      </c>
+      <c r="O41">
+        <v>770</v>
+      </c>
+      <c r="P41">
+        <v>0.02815353870391846</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16">
+      <c r="A42" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B42">
+        <v>181.5</v>
+      </c>
+      <c r="C42">
+        <v>1.2360113432785</v>
+      </c>
+      <c r="D42">
+        <v>10.736612795</v>
+      </c>
+      <c r="E42">
+        <v>44.81649399</v>
+      </c>
+      <c r="F42">
+        <v>15</v>
+      </c>
+      <c r="G42">
+        <v>2.33897661225</v>
+      </c>
+      <c r="H42">
+        <v>74.30225372</v>
+      </c>
+      <c r="I42">
+        <v>17.46782494</v>
+      </c>
+      <c r="J42">
+        <v>62</v>
+      </c>
+      <c r="K42">
+        <v>0.2717501698265249</v>
+      </c>
+      <c r="L42">
+        <v>32.54899883</v>
+      </c>
+      <c r="M42">
+        <v>59.73817443999999</v>
+      </c>
+      <c r="N42">
+        <v>80</v>
+      </c>
+      <c r="O42">
+        <v>770</v>
+      </c>
+      <c r="P42">
+        <v>0.02815353870391846</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16">
+      <c r="A43" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B43">
+        <v>181.5</v>
+      </c>
+      <c r="C43">
+        <v>1.2360113432785</v>
+      </c>
+      <c r="D43">
+        <v>10.736612795</v>
+      </c>
+      <c r="E43">
+        <v>44.81649399</v>
+      </c>
+      <c r="F43">
+        <v>15</v>
+      </c>
+      <c r="G43">
+        <v>2.33897661225</v>
+      </c>
+      <c r="H43">
+        <v>74.30225372</v>
+      </c>
+      <c r="I43">
+        <v>17.46782494</v>
+      </c>
+      <c r="J43">
+        <v>62</v>
+      </c>
+      <c r="K43">
+        <v>0.2717501698265249</v>
+      </c>
+      <c r="L43">
+        <v>32.54899883</v>
+      </c>
+      <c r="M43">
+        <v>59.73817443999999</v>
+      </c>
+      <c r="N43">
+        <v>80</v>
+      </c>
+      <c r="O43">
+        <v>770</v>
+      </c>
+      <c r="P43">
+        <v>0.02815353870391846</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16">
+      <c r="A44" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B44">
+        <v>181.5</v>
+      </c>
+      <c r="C44">
+        <v>1.2360113432785</v>
+      </c>
+      <c r="D44">
+        <v>10.736612795</v>
+      </c>
+      <c r="E44">
+        <v>44.81649399</v>
+      </c>
+      <c r="F44">
+        <v>15</v>
+      </c>
+      <c r="G44">
+        <v>2.33897661225</v>
+      </c>
+      <c r="H44">
+        <v>74.30225372</v>
+      </c>
+      <c r="I44">
+        <v>17.46782494</v>
+      </c>
+      <c r="J44">
+        <v>62</v>
+      </c>
+      <c r="K44">
+        <v>0.2717501698265249</v>
+      </c>
+      <c r="L44">
+        <v>32.54899883</v>
+      </c>
+      <c r="M44">
+        <v>59.73817443999999</v>
+      </c>
+      <c r="N44">
+        <v>80</v>
+      </c>
+      <c r="O44">
+        <v>770</v>
+      </c>
+      <c r="P44">
+        <v>0.02815353870391846</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16">
+      <c r="A45" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B45">
+        <v>181.5</v>
+      </c>
+      <c r="C45">
+        <v>1.2360113432785</v>
+      </c>
+      <c r="D45">
+        <v>10.736612795</v>
+      </c>
+      <c r="E45">
+        <v>44.81649399</v>
+      </c>
+      <c r="F45">
+        <v>15</v>
+      </c>
+      <c r="G45">
+        <v>2.33897661225</v>
+      </c>
+      <c r="H45">
+        <v>74.30225372</v>
+      </c>
+      <c r="I45">
+        <v>17.46782494</v>
+      </c>
+      <c r="J45">
+        <v>62</v>
+      </c>
+      <c r="K45">
+        <v>0.2717501698265249</v>
+      </c>
+      <c r="L45">
+        <v>32.54899883</v>
+      </c>
+      <c r="M45">
+        <v>59.73817443999999</v>
+      </c>
+      <c r="N45">
+        <v>80</v>
+      </c>
+      <c r="O45">
+        <v>770</v>
+      </c>
+      <c r="P45">
+        <v>0.02815353870391846</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16">
+      <c r="A46" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B46">
+        <v>181.5</v>
+      </c>
+      <c r="C46">
+        <v>1.2360113432785</v>
+      </c>
+      <c r="D46">
+        <v>10.736612795</v>
+      </c>
+      <c r="E46">
+        <v>44.81649399</v>
+      </c>
+      <c r="F46">
+        <v>15</v>
+      </c>
+      <c r="G46">
+        <v>2.33897661225</v>
+      </c>
+      <c r="H46">
+        <v>74.30225372</v>
+      </c>
+      <c r="I46">
+        <v>17.46782494</v>
+      </c>
+      <c r="J46">
+        <v>62</v>
+      </c>
+      <c r="K46">
+        <v>0.2717501698265249</v>
+      </c>
+      <c r="L46">
+        <v>32.54899883</v>
+      </c>
+      <c r="M46">
+        <v>59.73817443999999</v>
+      </c>
+      <c r="N46">
+        <v>80</v>
+      </c>
+      <c r="O46">
+        <v>770</v>
+      </c>
+      <c r="P46">
+        <v>0.02815353870391846</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16">
+      <c r="A47" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B47">
+        <v>181.5</v>
+      </c>
+      <c r="C47">
+        <v>1.2360113432785</v>
+      </c>
+      <c r="D47">
+        <v>10.736612795</v>
+      </c>
+      <c r="E47">
+        <v>44.81649399</v>
+      </c>
+      <c r="F47">
+        <v>15</v>
+      </c>
+      <c r="G47">
+        <v>2.33897661225</v>
+      </c>
+      <c r="H47">
+        <v>74.30225372</v>
+      </c>
+      <c r="I47">
+        <v>17.46782494</v>
+      </c>
+      <c r="J47">
+        <v>62</v>
+      </c>
+      <c r="K47">
+        <v>0.2717501698265249</v>
+      </c>
+      <c r="L47">
+        <v>32.54899883</v>
+      </c>
+      <c r="M47">
+        <v>59.73817443999999</v>
+      </c>
+      <c r="N47">
+        <v>80</v>
+      </c>
+      <c r="O47">
+        <v>770</v>
+      </c>
+      <c r="P47">
+        <v>0.02815353870391846</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/log/icg_log.xlsx
+++ b/log/icg_log.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="27">
   <si>
     <t>Simulation Case Conditions_Feed Rate_Feed from V615 Btm_m3/hr</t>
   </si>
@@ -86,6 +86,15 @@
   </si>
   <si>
     <t>78</t>
+  </si>
+  <si>
+    <t>170</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>101</t>
   </si>
 </sst>
 </file>
@@ -443,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P47"/>
+  <dimension ref="A1:P62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2794,6 +2803,756 @@
         <v>0.02815353870391846</v>
       </c>
     </row>
+    <row r="48" spans="1:16">
+      <c r="A48" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B48">
+        <v>181.5</v>
+      </c>
+      <c r="C48">
+        <v>1.2360113432785</v>
+      </c>
+      <c r="D48">
+        <v>10.736612795</v>
+      </c>
+      <c r="E48">
+        <v>44.81649399</v>
+      </c>
+      <c r="F48">
+        <v>15</v>
+      </c>
+      <c r="G48">
+        <v>2.33897661225</v>
+      </c>
+      <c r="H48">
+        <v>74.30225372</v>
+      </c>
+      <c r="I48">
+        <v>17.46782494</v>
+      </c>
+      <c r="J48">
+        <v>62</v>
+      </c>
+      <c r="K48">
+        <v>0.2717501698265249</v>
+      </c>
+      <c r="L48">
+        <v>32.54899883</v>
+      </c>
+      <c r="M48">
+        <v>59.73817443999999</v>
+      </c>
+      <c r="N48">
+        <v>80</v>
+      </c>
+      <c r="O48">
+        <v>770</v>
+      </c>
+      <c r="P48">
+        <v>0.02815353870391846</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16">
+      <c r="A49" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B49">
+        <v>181.5</v>
+      </c>
+      <c r="C49">
+        <v>1.2360113432785</v>
+      </c>
+      <c r="D49">
+        <v>10.736612795</v>
+      </c>
+      <c r="E49">
+        <v>44.81649399</v>
+      </c>
+      <c r="F49">
+        <v>15</v>
+      </c>
+      <c r="G49">
+        <v>2.33897661225</v>
+      </c>
+      <c r="H49">
+        <v>74.30225372</v>
+      </c>
+      <c r="I49">
+        <v>17.46782494</v>
+      </c>
+      <c r="J49">
+        <v>62</v>
+      </c>
+      <c r="K49">
+        <v>0.2717501698265249</v>
+      </c>
+      <c r="L49">
+        <v>32.54899883</v>
+      </c>
+      <c r="M49">
+        <v>59.73817443999999</v>
+      </c>
+      <c r="N49">
+        <v>80</v>
+      </c>
+      <c r="O49">
+        <v>770</v>
+      </c>
+      <c r="P49">
+        <v>0.02815353870391846</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16">
+      <c r="A50" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B50">
+        <v>181.5</v>
+      </c>
+      <c r="C50">
+        <v>1.2360113432785</v>
+      </c>
+      <c r="D50">
+        <v>10.736612795</v>
+      </c>
+      <c r="E50">
+        <v>44.81649399</v>
+      </c>
+      <c r="F50">
+        <v>15</v>
+      </c>
+      <c r="G50">
+        <v>2.33897661225</v>
+      </c>
+      <c r="H50">
+        <v>74.30225372</v>
+      </c>
+      <c r="I50">
+        <v>17.46782494</v>
+      </c>
+      <c r="J50">
+        <v>62</v>
+      </c>
+      <c r="K50">
+        <v>0.2717501698265249</v>
+      </c>
+      <c r="L50">
+        <v>32.54899883</v>
+      </c>
+      <c r="M50">
+        <v>59.73817443999999</v>
+      </c>
+      <c r="N50">
+        <v>80</v>
+      </c>
+      <c r="O50">
+        <v>770</v>
+      </c>
+      <c r="P50">
+        <v>0.02815353870391846</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16">
+      <c r="A51" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B51">
+        <v>181.5</v>
+      </c>
+      <c r="C51">
+        <v>1.2360113432785</v>
+      </c>
+      <c r="D51">
+        <v>10.736612795</v>
+      </c>
+      <c r="E51">
+        <v>44.81649399</v>
+      </c>
+      <c r="F51">
+        <v>15</v>
+      </c>
+      <c r="G51">
+        <v>2.33897661225</v>
+      </c>
+      <c r="H51">
+        <v>74.30225372</v>
+      </c>
+      <c r="I51">
+        <v>17.46782494</v>
+      </c>
+      <c r="J51">
+        <v>62</v>
+      </c>
+      <c r="K51">
+        <v>0.2717501698265249</v>
+      </c>
+      <c r="L51">
+        <v>32.54899883</v>
+      </c>
+      <c r="M51">
+        <v>59.73817443999999</v>
+      </c>
+      <c r="N51">
+        <v>80</v>
+      </c>
+      <c r="O51">
+        <v>770</v>
+      </c>
+      <c r="P51">
+        <v>0.02815353870391846</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16">
+      <c r="A52" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B52">
+        <v>181.5</v>
+      </c>
+      <c r="C52">
+        <v>1.2360113432785</v>
+      </c>
+      <c r="D52">
+        <v>10.736612795</v>
+      </c>
+      <c r="E52">
+        <v>44.81649399</v>
+      </c>
+      <c r="F52">
+        <v>15</v>
+      </c>
+      <c r="G52">
+        <v>2.33897661225</v>
+      </c>
+      <c r="H52">
+        <v>74.30225372</v>
+      </c>
+      <c r="I52">
+        <v>17.46782494</v>
+      </c>
+      <c r="J52">
+        <v>62</v>
+      </c>
+      <c r="K52">
+        <v>0.2717501698265249</v>
+      </c>
+      <c r="L52">
+        <v>32.54899883</v>
+      </c>
+      <c r="M52">
+        <v>59.73817443999999</v>
+      </c>
+      <c r="N52">
+        <v>80</v>
+      </c>
+      <c r="O52">
+        <v>770</v>
+      </c>
+      <c r="P52">
+        <v>0.02815353870391846</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16">
+      <c r="A53" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B53">
+        <v>181.5</v>
+      </c>
+      <c r="C53">
+        <v>1.2360113432785</v>
+      </c>
+      <c r="D53">
+        <v>10.736612795</v>
+      </c>
+      <c r="E53">
+        <v>44.81649399</v>
+      </c>
+      <c r="F53">
+        <v>15</v>
+      </c>
+      <c r="G53">
+        <v>2.33897661225</v>
+      </c>
+      <c r="H53">
+        <v>74.30225372</v>
+      </c>
+      <c r="I53">
+        <v>17.46782494</v>
+      </c>
+      <c r="J53">
+        <v>62</v>
+      </c>
+      <c r="K53">
+        <v>0.2717501698265249</v>
+      </c>
+      <c r="L53">
+        <v>32.54899883</v>
+      </c>
+      <c r="M53">
+        <v>59.73817443999999</v>
+      </c>
+      <c r="N53">
+        <v>80</v>
+      </c>
+      <c r="O53">
+        <v>770</v>
+      </c>
+      <c r="P53">
+        <v>0.02815353870391846</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16">
+      <c r="A54" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B54">
+        <v>181.5</v>
+      </c>
+      <c r="C54">
+        <v>1.2360113432785</v>
+      </c>
+      <c r="D54">
+        <v>10.736612795</v>
+      </c>
+      <c r="E54">
+        <v>44.81649399</v>
+      </c>
+      <c r="F54">
+        <v>15</v>
+      </c>
+      <c r="G54">
+        <v>2.33897661225</v>
+      </c>
+      <c r="H54">
+        <v>74.30225372</v>
+      </c>
+      <c r="I54">
+        <v>17.46782494</v>
+      </c>
+      <c r="J54">
+        <v>62</v>
+      </c>
+      <c r="K54">
+        <v>0.2717501698265249</v>
+      </c>
+      <c r="L54">
+        <v>32.54899883</v>
+      </c>
+      <c r="M54">
+        <v>59.73817443999999</v>
+      </c>
+      <c r="N54">
+        <v>80</v>
+      </c>
+      <c r="O54">
+        <v>860</v>
+      </c>
+      <c r="P54">
+        <v>0.01213965378701687</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16">
+      <c r="A55" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B55">
+        <v>181.5</v>
+      </c>
+      <c r="C55">
+        <v>1.2360113432785</v>
+      </c>
+      <c r="D55">
+        <v>10.736612795</v>
+      </c>
+      <c r="E55">
+        <v>44.81649399</v>
+      </c>
+      <c r="F55">
+        <v>15</v>
+      </c>
+      <c r="G55">
+        <v>2.33897661225</v>
+      </c>
+      <c r="H55">
+        <v>74.30225372</v>
+      </c>
+      <c r="I55">
+        <v>17.46782494</v>
+      </c>
+      <c r="J55">
+        <v>62</v>
+      </c>
+      <c r="K55">
+        <v>0.2717501698265249</v>
+      </c>
+      <c r="L55">
+        <v>32.54899883</v>
+      </c>
+      <c r="M55">
+        <v>59.73817443999999</v>
+      </c>
+      <c r="N55">
+        <v>80</v>
+      </c>
+      <c r="O55">
+        <v>860</v>
+      </c>
+      <c r="P55">
+        <v>0.01213965378701687</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16">
+      <c r="A56" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B56">
+        <v>181.5</v>
+      </c>
+      <c r="C56">
+        <v>1.2360113432785</v>
+      </c>
+      <c r="D56">
+        <v>10.736612795</v>
+      </c>
+      <c r="E56">
+        <v>44.81649399</v>
+      </c>
+      <c r="F56">
+        <v>15</v>
+      </c>
+      <c r="G56">
+        <v>2.33897661225</v>
+      </c>
+      <c r="H56">
+        <v>74.30225372</v>
+      </c>
+      <c r="I56">
+        <v>17.46782494</v>
+      </c>
+      <c r="J56">
+        <v>62</v>
+      </c>
+      <c r="K56">
+        <v>0.2717501698265249</v>
+      </c>
+      <c r="L56">
+        <v>32.54899883</v>
+      </c>
+      <c r="M56">
+        <v>59.73817443999999</v>
+      </c>
+      <c r="N56">
+        <v>80</v>
+      </c>
+      <c r="O56">
+        <v>770</v>
+      </c>
+      <c r="P56">
+        <v>0.02815353870391846</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16">
+      <c r="A57" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B57">
+        <v>181.5</v>
+      </c>
+      <c r="C57">
+        <v>1.2360113432785</v>
+      </c>
+      <c r="D57">
+        <v>10.736612795</v>
+      </c>
+      <c r="E57">
+        <v>44.81649399</v>
+      </c>
+      <c r="F57">
+        <v>15</v>
+      </c>
+      <c r="G57">
+        <v>2.33897661225</v>
+      </c>
+      <c r="H57">
+        <v>74.30225372</v>
+      </c>
+      <c r="I57">
+        <v>17.46782494</v>
+      </c>
+      <c r="J57">
+        <v>62</v>
+      </c>
+      <c r="K57">
+        <v>0.2717501698265249</v>
+      </c>
+      <c r="L57">
+        <v>32.54899883</v>
+      </c>
+      <c r="M57">
+        <v>59.73817443999999</v>
+      </c>
+      <c r="N57">
+        <v>80</v>
+      </c>
+      <c r="O57">
+        <v>770</v>
+      </c>
+      <c r="P57">
+        <v>0.02815353870391846</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16">
+      <c r="A58" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B58">
+        <v>181.5</v>
+      </c>
+      <c r="C58">
+        <v>1.2360113432785</v>
+      </c>
+      <c r="D58">
+        <v>10.736612795</v>
+      </c>
+      <c r="E58">
+        <v>44.81649399</v>
+      </c>
+      <c r="F58">
+        <v>15</v>
+      </c>
+      <c r="G58">
+        <v>2.33897661225</v>
+      </c>
+      <c r="H58">
+        <v>74.30225372</v>
+      </c>
+      <c r="I58">
+        <v>17.46782494</v>
+      </c>
+      <c r="J58">
+        <v>62</v>
+      </c>
+      <c r="K58">
+        <v>0.2717501698265249</v>
+      </c>
+      <c r="L58">
+        <v>32.54899883</v>
+      </c>
+      <c r="M58">
+        <v>59.73817443999999</v>
+      </c>
+      <c r="N58">
+        <v>80</v>
+      </c>
+      <c r="O58">
+        <v>770</v>
+      </c>
+      <c r="P58">
+        <v>0.02815353870391846</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16">
+      <c r="A59" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B59">
+        <v>181.5</v>
+      </c>
+      <c r="C59">
+        <v>1.2360113432785</v>
+      </c>
+      <c r="D59">
+        <v>10.736612795</v>
+      </c>
+      <c r="E59">
+        <v>44.81649399</v>
+      </c>
+      <c r="F59">
+        <v>15</v>
+      </c>
+      <c r="G59">
+        <v>2.33897661225</v>
+      </c>
+      <c r="H59">
+        <v>74.30225372</v>
+      </c>
+      <c r="I59">
+        <v>17.46782494</v>
+      </c>
+      <c r="J59">
+        <v>62</v>
+      </c>
+      <c r="K59">
+        <v>0.2717501698265249</v>
+      </c>
+      <c r="L59">
+        <v>32.54899883</v>
+      </c>
+      <c r="M59">
+        <v>59.73817443999999</v>
+      </c>
+      <c r="N59">
+        <v>80</v>
+      </c>
+      <c r="O59">
+        <v>770</v>
+      </c>
+      <c r="P59">
+        <v>0.02815353870391846</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16">
+      <c r="A60" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B60">
+        <v>181.5</v>
+      </c>
+      <c r="C60">
+        <v>1.2360113432785</v>
+      </c>
+      <c r="D60">
+        <v>10.736612795</v>
+      </c>
+      <c r="E60">
+        <v>44.81649399</v>
+      </c>
+      <c r="F60">
+        <v>15</v>
+      </c>
+      <c r="G60">
+        <v>2.33897661225</v>
+      </c>
+      <c r="H60">
+        <v>74.30225372</v>
+      </c>
+      <c r="I60">
+        <v>17.46782494</v>
+      </c>
+      <c r="J60">
+        <v>62</v>
+      </c>
+      <c r="K60">
+        <v>0.2717501698265249</v>
+      </c>
+      <c r="L60">
+        <v>32.54899883</v>
+      </c>
+      <c r="M60">
+        <v>59.73817443999999</v>
+      </c>
+      <c r="N60">
+        <v>80</v>
+      </c>
+      <c r="O60">
+        <v>770</v>
+      </c>
+      <c r="P60">
+        <v>0.02815353870391846</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16">
+      <c r="A61" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B61">
+        <v>181.5</v>
+      </c>
+      <c r="C61">
+        <v>1.2360113432785</v>
+      </c>
+      <c r="D61">
+        <v>10.736612795</v>
+      </c>
+      <c r="E61">
+        <v>44.81649399</v>
+      </c>
+      <c r="F61">
+        <v>15</v>
+      </c>
+      <c r="G61">
+        <v>2.33897661225</v>
+      </c>
+      <c r="H61">
+        <v>74.30225372</v>
+      </c>
+      <c r="I61">
+        <v>17.46782494</v>
+      </c>
+      <c r="J61">
+        <v>62</v>
+      </c>
+      <c r="K61">
+        <v>0.2717501698265249</v>
+      </c>
+      <c r="L61">
+        <v>32.54899883</v>
+      </c>
+      <c r="M61">
+        <v>59.73817443999999</v>
+      </c>
+      <c r="N61">
+        <v>80</v>
+      </c>
+      <c r="O61">
+        <v>770</v>
+      </c>
+      <c r="P61">
+        <v>0.02815353870391846</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16">
+      <c r="A62" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B62">
+        <v>181.5</v>
+      </c>
+      <c r="C62">
+        <v>1.2360113432785</v>
+      </c>
+      <c r="D62">
+        <v>10.736612795</v>
+      </c>
+      <c r="E62">
+        <v>44.81649399</v>
+      </c>
+      <c r="F62">
+        <v>15</v>
+      </c>
+      <c r="G62">
+        <v>2.33897661225</v>
+      </c>
+      <c r="H62">
+        <v>74.30225372</v>
+      </c>
+      <c r="I62">
+        <v>17.46782494</v>
+      </c>
+      <c r="J62">
+        <v>62</v>
+      </c>
+      <c r="K62">
+        <v>0.2717501698265249</v>
+      </c>
+      <c r="L62">
+        <v>32.54899883</v>
+      </c>
+      <c r="M62">
+        <v>59.73817443999999</v>
+      </c>
+      <c r="N62">
+        <v>80</v>
+      </c>
+      <c r="O62">
+        <v>770</v>
+      </c>
+      <c r="P62">
+        <v>0.02815353870391846</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
